--- a/xlsx/find_and_replace_v2.0_.xlsx
+++ b/xlsx/find_and_replace_v2.0_.xlsx
@@ -172,7 +172,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -640,646 +643,650 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.82421875" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="10.99" customWidth="1" style="17" min="1" max="1"/>
-    <col width="9.720000000000001" customWidth="1" style="17" min="2" max="2"/>
-    <col width="10.88" customWidth="1" style="17" min="3" max="3"/>
-    <col width="6.48" customWidth="1" style="17" min="7" max="7"/>
-    <col width="8.1" customWidth="1" style="17" min="10" max="10"/>
+    <col width="10.99" customWidth="1" style="18" min="1" max="1"/>
+    <col width="9.720000000000001" customWidth="1" style="18" min="2" max="2"/>
+    <col width="10.88" customWidth="1" style="18" min="3" max="3"/>
+    <col width="6.48" customWidth="1" style="18" min="7" max="7"/>
+    <col width="8.1" customWidth="1" style="18" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="18">
-      <c r="A1" s="19" t="inlineStr">
+    <row r="1" ht="14.25" customHeight="1" s="19">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
+      <c r="G1" s="21" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="18">
-      <c r="A2" s="21" t="inlineStr">
+    <row r="2" ht="13.5" customHeight="1" s="19">
+      <c r="A2" s="22" t="inlineStr">
         <is>
           <t>Pounds Lost</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="22" t="inlineStr">
         <is>
           <t>Names</t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
+      <c r="C2" s="22" t="inlineStr">
         <is>
           <t>Diets</t>
         </is>
       </c>
-      <c r="D2" s="21" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Exercise </t>
         </is>
       </c>
-      <c r="E2" s="21" t="inlineStr">
+      <c r="E2" s="22" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="G2" s="22" t="inlineStr">
+      <c r="G2" s="23" t="inlineStr">
         <is>
           <t>Number of Players</t>
         </is>
       </c>
-      <c r="H2" s="23" t="inlineStr">
+      <c r="H2" s="24" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="I2" s="23" t="inlineStr">
+      <c r="I2" s="24" t="inlineStr">
         <is>
           <t>Colour</t>
         </is>
       </c>
-      <c r="J2" s="24" t="inlineStr">
+      <c r="J2" s="25" t="inlineStr">
         <is>
           <t>Game</t>
         </is>
       </c>
-      <c r="K2" s="21" t="inlineStr">
+      <c r="K2" s="22" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="18">
-      <c r="A3" s="25" t="n">
+    <row r="3" ht="13.5" customHeight="1" s="19">
+      <c r="A3" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <is>
           <t>Barbera</t>
         </is>
       </c>
-      <c r="C3" s="26" t="inlineStr">
+      <c r="C3" s="27" t="inlineStr">
         <is>
           <t>sugar-free</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="27" t="inlineStr">
         <is>
           <t>yoga</t>
         </is>
       </c>
-      <c r="E3" s="26" t="inlineStr">
+      <c r="E3" s="27" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="27" t="inlineStr">
+      <c r="H3" s="28" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="28" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="J3" s="26" t="inlineStr">
+      <c r="J3" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Monopoly </t>
         </is>
       </c>
-      <c r="K3" s="28" t="inlineStr">
+      <c r="K3" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">Ford </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="18">
-      <c r="A4" s="25" t="n">
+    <row r="4" ht="13.5" customHeight="1" s="19">
+      <c r="A4" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="30" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="C4" s="26" t="inlineStr">
+      <c r="C4" s="27" t="inlineStr">
         <is>
           <t>Gluten-free</t>
         </is>
       </c>
-      <c r="D4" s="26" t="inlineStr">
+      <c r="D4" s="27" t="inlineStr">
         <is>
           <t>cycling</t>
         </is>
       </c>
-      <c r="E4" s="26" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>ornage</t>
         </is>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="30" t="inlineStr">
+      <c r="H4" s="31" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="I4" s="28" t="inlineStr">
         <is>
           <t>Orange</t>
         </is>
       </c>
-      <c r="J4" s="26" t="inlineStr">
+      <c r="J4" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrabble </t>
         </is>
       </c>
-      <c r="K4" s="26" t="inlineStr">
+      <c r="K4" s="27" t="inlineStr">
         <is>
           <t>mercedes</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="18">
-      <c r="A5" s="25" t="n">
+    <row r="5" ht="13.5" customHeight="1" s="19">
+      <c r="A5" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>Stuart</t>
         </is>
       </c>
-      <c r="C5" s="26" t="inlineStr">
+      <c r="C5" s="27" t="inlineStr">
         <is>
           <t>Low-fat</t>
         </is>
       </c>
-      <c r="D5" s="26" t="inlineStr">
+      <c r="D5" s="27" t="inlineStr">
         <is>
           <t>rowing</t>
         </is>
       </c>
-      <c r="E5" s="26" t="inlineStr">
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>pear</t>
         </is>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="H5" s="27" t="inlineStr">
+      <c r="H5" s="28" t="inlineStr">
         <is>
           <t>Jessica</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="28" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="J5" s="26" t="inlineStr">
+      <c r="J5" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcassonne </t>
         </is>
       </c>
-      <c r="K5" s="26" t="inlineStr">
+      <c r="K5" s="27" t="inlineStr">
         <is>
           <t>BMw</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="23.85" customHeight="1" s="18">
-      <c r="A6" s="25" t="n">
+    <row r="6" ht="23.25" customHeight="1" s="19">
+      <c r="A6" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Zachary</t>
         </is>
       </c>
-      <c r="C6" s="26" t="inlineStr">
+      <c r="C6" s="27" t="inlineStr">
         <is>
           <t>Dairy-free</t>
         </is>
       </c>
-      <c r="D6" s="26" t="inlineStr">
+      <c r="D6" s="27" t="inlineStr">
         <is>
           <t>racquetball</t>
         </is>
       </c>
-      <c r="E6" s="26" t="inlineStr">
+      <c r="E6" s="27" t="inlineStr">
         <is>
           <t>grape</t>
         </is>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="H6" s="27" t="inlineStr">
+      <c r="H6" s="28" t="inlineStr">
         <is>
           <t>Eliot</t>
         </is>
       </c>
-      <c r="I6" s="27" t="inlineStr">
+      <c r="I6" s="28" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="J6" s="26" t="inlineStr">
+      <c r="J6" s="27" t="inlineStr">
         <is>
           <t>Pandemic</t>
         </is>
       </c>
-      <c r="K6" s="26" t="inlineStr">
+      <c r="K6" s="27" t="inlineStr">
         <is>
           <t>tesla</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="23.85" customHeight="1" s="18">
-      <c r="A7" s="25" t="n">
+    <row r="7" ht="23.25" customHeight="1" s="19">
+      <c r="A7" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="27" t="inlineStr">
         <is>
           <t>Pamela</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>vegan</t>
         </is>
       </c>
-      <c r="D7" s="26" t="inlineStr">
+      <c r="D7" s="27" t="inlineStr">
         <is>
           <t>weight lifting</t>
         </is>
       </c>
-      <c r="E7" s="26" t="inlineStr">
+      <c r="E7" s="27" t="inlineStr">
         <is>
           <t>lemon</t>
         </is>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="26" t="n">
         <v>504</v>
       </c>
-      <c r="H7" s="27" t="inlineStr">
+      <c r="H7" s="28" t="inlineStr">
         <is>
           <t>Lara</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="28" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
-      <c r="J7" s="31" t="inlineStr">
+      <c r="J7" s="32" t="inlineStr">
         <is>
           <t>Chess</t>
         </is>
       </c>
-      <c r="K7" s="26" t="inlineStr">
+      <c r="K7" s="27" t="inlineStr">
         <is>
           <t>bentley</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="18">
-      <c r="A8" s="25" t="n">
+    <row r="8" ht="13.5" customHeight="1" s="19">
+      <c r="A8" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="26" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <is>
           <t>Celia</t>
         </is>
       </c>
-      <c r="C8" s="26" t="inlineStr">
+      <c r="C8" s="27" t="inlineStr">
         <is>
           <t>caveman</t>
         </is>
       </c>
-      <c r="D8" s="26" t="inlineStr">
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="E8" s="26" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="H8" s="27" t="inlineStr">
+      <c r="H8" s="28" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
-      <c r="I8" s="27" t="inlineStr">
+      <c r="I8" s="28" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
-      <c r="J8" s="26" t="inlineStr">
+      <c r="J8" s="27" t="inlineStr">
         <is>
           <t>Catan</t>
         </is>
       </c>
-      <c r="K8" s="26" t="inlineStr">
+      <c r="K8" s="27" t="inlineStr">
         <is>
           <t>mini</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="18">
-      <c r="A9" s="25" t="n">
+    <row r="9" ht="13.5" customHeight="1" s="19">
+      <c r="A9" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="inlineStr">
+      <c r="B9" s="27" t="inlineStr">
         <is>
           <t>Ora</t>
         </is>
       </c>
-      <c r="C9" s="26" t="inlineStr">
+      <c r="C9" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Vegetarian </t>
         </is>
       </c>
-      <c r="D9" s="26" t="inlineStr">
+      <c r="D9" s="27" t="inlineStr">
         <is>
           <t>kayaking</t>
         </is>
       </c>
-      <c r="E9" s="26" t="inlineStr">
+      <c r="E9" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">blueberry </t>
         </is>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="H9" s="27" t="inlineStr">
+      <c r="H9" s="28" t="inlineStr">
         <is>
           <t>Daisy</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">Black </t>
         </is>
       </c>
-      <c r="J9" s="26" t="inlineStr">
+      <c r="J9" s="27" t="inlineStr">
         <is>
           <t>Cluedo</t>
         </is>
       </c>
-      <c r="K9" s="26" t="inlineStr">
+      <c r="K9" s="27" t="inlineStr">
         <is>
           <t>ferrari</t>
         </is>
       </c>
     </row>
     <row r="10"/>
-    <row r="11" ht="13.8" customHeight="1" s="18">
-      <c r="A11" s="32" t="inlineStr">
+    <row r="11" ht="13.5" customHeight="1" s="19">
+      <c r="A11" s="33" t="inlineStr">
         <is>
           <t>original clues</t>
         </is>
       </c>
-      <c r="G11" s="33" t="n"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="18">
-      <c r="A12" s="34" t="inlineStr">
+      <c r="G11" s="34" t="inlineStr">
+        <is>
+          <t>new clues</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="19">
+      <c r="A12" s="35" t="inlineStr">
         <is>
           <t>1. The friend who lost 11 lbs didn't try cycling.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="18">
-      <c r="A13" s="34" t="inlineStr">
+    <row r="13" ht="13.5" customHeight="1" s="19">
+      <c r="A13" s="35" t="inlineStr">
         <is>
           <t>2. Of the friend who used the dairy-free diet and the dieter who lost 13 lbs, one started playing racquetball and the other is Celia.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="18">
-      <c r="A14" s="34" t="inlineStr">
+    <row r="14" ht="13.5" customHeight="1" s="19">
+      <c r="A14" s="35" t="inlineStr">
         <is>
           <t>3. The person who started a jogging regimen lost 6 more pounds than the person who started a rowing regimen.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="18">
-      <c r="A15" s="34" t="inlineStr">
+    <row r="15" ht="13.5" customHeight="1" s="19">
+      <c r="A15" s="35" t="inlineStr">
         <is>
           <t>4. Of the friend who used the sugar-free diet and the friend who lost 15 lbs, one started kayaking and the other is Barbara.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="18">
-      <c r="A16" s="34" t="inlineStr">
+    <row r="16" ht="13.5" customHeight="1" s="19">
+      <c r="A16" s="35" t="inlineStr">
         <is>
           <t>5. Of Celia and the friend who started a rowing regimen, one lost 13 lbs and the other used the low-fat diet.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="18">
-      <c r="A17" s="34" t="inlineStr">
+    <row r="17" ht="13.5" customHeight="1" s="19">
+      <c r="A17" s="35" t="inlineStr">
         <is>
           <t>6. Zachary didn't try rowing.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="18">
-      <c r="A18" s="34" t="inlineStr">
+    <row r="18" ht="13.5" customHeight="1" s="19">
+      <c r="A18" s="35" t="inlineStr">
         <is>
           <t>7. The friend who started a yoga regimen lost 2 fewer pounds than Felicia.</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="18">
-      <c r="A19" s="34" t="inlineStr">
+    <row r="19" ht="13.5" customHeight="1" s="19">
+      <c r="A19" s="35" t="inlineStr">
         <is>
           <t>8. Pamela lost 2 more pounds than the dieter who started a racquetball regimen.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="18">
-      <c r="A20" s="17" t="inlineStr">
+    <row r="20" ht="13.5" customHeight="1" s="19">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>9. The friend who used the vegetarian diet lost 4 more pounds than the dieter who used the vegan diet.</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="18">
-      <c r="A21" s="17" t="inlineStr">
+    <row r="21" ht="13.5" customHeight="1" s="19">
+      <c r="A21" s="18" t="inlineStr">
         <is>
           <t>10. Stuart, Zachary, the dieter who lost 5 lbs, the person who lost 11 lbs, the dieter who lost 3 lbs and the dieter who started a kayaking regimen are all different people.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="18">
-      <c r="A22" s="17" t="inlineStr">
+    <row r="22" ht="13.5" customHeight="1" s="19">
+      <c r="A22" s="18" t="inlineStr">
         <is>
           <t>11. The dieter who used the dairy-free diet lost 4 more pounds than the person who used the gluten-free diet.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="18">
-      <c r="A23" s="17" t="inlineStr">
+    <row r="23" ht="13.5" customHeight="1" s="19">
+      <c r="A23" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">12. the dieter who was called George drove a Ford </t>
         </is>
       </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="18">
-      <c r="A24" s="17" t="inlineStr">
+    <row r="24" ht="13.5" customHeight="1" s="19">
+      <c r="A24" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">13. the black table was not by the mini owner </t>
         </is>
       </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="18">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="18">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="13.8" customHeight="1" s="18">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="13.8" customHeight="1" s="18">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="13.8" customHeight="1" s="18">
-      <c r="A29" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="13.8" customHeight="1" s="18">
-      <c r="A30" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="13.8" customHeight="1" s="18">
-      <c r="A31" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="13.8" customHeight="1" s="18">
-      <c r="A32" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="13.8" customHeight="1" s="18">
-      <c r="A33" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="13.8" customHeight="1" s="18">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="13.8" customHeight="1" s="18">
-      <c r="A35" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="13.8" customHeight="1" s="18">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="13.8" customHeight="1" s="18">
-      <c r="A37" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="13.8" customHeight="1" s="18">
-      <c r="A38" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="13.8" customHeight="1" s="18">
-      <c r="A39" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="13.8" customHeight="1" s="18">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="13.8" customHeight="1" s="18">
-      <c r="A41" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="13.8" customHeight="1" s="18">
-      <c r="A42" s="17" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="13.8" customHeight="1" s="18"/>
-    <row r="44" ht="13.8" customHeight="1" s="18"/>
+    <row r="25" ht="13.5" customHeight="1" s="19">
+      <c r="A25" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="19">
+      <c r="A26" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="19">
+      <c r="A27" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="19">
+      <c r="A28" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" s="19">
+      <c r="A29" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="19">
+      <c r="A30" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="19">
+      <c r="A31" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="19">
+      <c r="A32" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" s="19">
+      <c r="A33" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="19">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="19">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="19">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" s="19">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1" s="19">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" s="19">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" s="19">
+      <c r="A40" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="19">
+      <c r="A41" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" s="19">
+      <c r="A42" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" s="19"/>
+    <row r="44" ht="13.5" customHeight="1" s="19"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1289,898 +1296,897 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="19">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>original</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="19">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Pounds Lost</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>Number of Players</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="19">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Names</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="19">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Diets</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>Colour</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="19">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Exercise </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t>Game</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="19">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="19">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="19">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Barbera</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="18" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="19">
+      <c r="A9" s="18" t="inlineStr">
         <is>
           <t>sugar-free</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="19">
+      <c r="A10" s="18" t="inlineStr">
         <is>
           <t>yoga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Monopoly </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="15" customHeight="1" s="19">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ford </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="15" customHeight="1" s="19">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="15" customHeight="1" s="19">
+      <c r="A13" s="18" t="inlineStr">
         <is>
           <t>Felicia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="19">
+      <c r="A14" s="18" t="inlineStr">
         <is>
           <t>Gluten-free</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr">
         <is>
           <t>Orange</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="15" customHeight="1" s="19">
+      <c r="A15" s="18" t="inlineStr">
         <is>
           <t>cycling</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrabble </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="19">
+      <c r="A16" s="18" t="inlineStr">
         <is>
           <t>ornage</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr">
         <is>
           <t>mercedes</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="15" customHeight="1" s="19">
+      <c r="A17" s="18" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="18" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="15" customHeight="1" s="19">
+      <c r="A18" s="18" t="inlineStr">
         <is>
           <t>Stuart</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="18" t="inlineStr">
         <is>
           <t>Jessica</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="15" customHeight="1" s="19">
+      <c r="A19" s="18" t="inlineStr">
         <is>
           <t>Low-fat</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="18" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="19">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>rowing</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcassonne </t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="15" customHeight="1" s="19">
+      <c r="A21" s="18" t="inlineStr">
         <is>
           <t>pear</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="18" t="inlineStr">
         <is>
           <t>BMw</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="19">
+      <c r="A22" s="18" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="18" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="19">
+      <c r="A23" s="18" t="inlineStr">
         <is>
           <t>Zachary</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="18" t="inlineStr">
         <is>
           <t>Eliot</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="19">
+      <c r="A24" s="18" t="inlineStr">
         <is>
           <t>Dairy-free</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="18" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="19">
+      <c r="A25" s="18" t="inlineStr">
         <is>
           <t>racquetball</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="18" t="inlineStr">
         <is>
           <t>Pandemic</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="19">
+      <c r="A26" s="18" t="inlineStr">
         <is>
           <t>grape</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="18" t="inlineStr">
         <is>
           <t>tesla</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="19">
+      <c r="A27" s="18" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="18" t="inlineStr">
         <is>
           <t>504</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="19">
+      <c r="A28" s="18" t="inlineStr">
         <is>
           <t>Pamela</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="18" t="inlineStr">
         <is>
           <t>Lara</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="19">
+      <c r="A29" s="18" t="inlineStr">
         <is>
           <t>vegan</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="18" t="inlineStr">
         <is>
           <t>Yellow</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="19">
+      <c r="A30" s="18" t="inlineStr">
         <is>
           <t>weight lifting</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="18" t="inlineStr">
         <is>
           <t>Chess</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="19">
+      <c r="A31" s="18" t="inlineStr">
         <is>
           <t>lemon</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>bentley</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="19">
+      <c r="A32" s="18" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="18" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="19">
+      <c r="A33" s="18" t="inlineStr">
         <is>
           <t>Celia</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="18" t="inlineStr">
         <is>
           <t>Anthony</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="19">
+      <c r="A34" s="18" t="inlineStr">
         <is>
           <t>caveman</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="18" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="19">
+      <c r="A35" s="18" t="inlineStr">
         <is>
           <t>jogging</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="18" t="inlineStr">
         <is>
           <t>Catan</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="19">
+      <c r="A36" s="18" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="18" t="inlineStr">
         <is>
           <t>mini</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="19">
+      <c r="A37" s="18" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="18" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="19">
+      <c r="A38" s="18" t="inlineStr">
         <is>
           <t>Ora</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="18" t="inlineStr">
         <is>
           <t>Daisy</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="19">
+      <c r="A39" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Vegetarian </t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Black </t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="19">
+      <c r="A40" s="18" t="inlineStr">
         <is>
           <t>kayaking</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="18" t="inlineStr">
         <is>
           <t>Cluedo</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="19">
+      <c r="A41" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">blueberry </t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="18" t="inlineStr">
         <is>
           <t>ferrari</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="19">
+      <c r="A43" s="18" t="inlineStr">
         <is>
           <t>original clues</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="18" t="inlineStr">
         <is>
           <t>new clues</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="19">
+      <c r="A44" s="18" t="inlineStr">
         <is>
           <t>The friend who lost 11 lbs didn't try cycling.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="18" t="inlineStr">
         <is>
           <t>The friend who lost 504 lbs didn't try Scrabble .</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="19">
+      <c r="A45" s="18" t="inlineStr">
         <is>
           <t>Of the friend who used the dairy-free diet and the dieter who lost 13 lbs, one started playing racquetball and the other is Celia.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="18" t="inlineStr">
         <is>
           <t>Of the friend who used the dairy-free diet and the dieter who lost 13 lbs, one started playing Pandemic and the other is Anthony.</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="19">
+      <c r="A46" s="18" t="inlineStr">
         <is>
           <t>The person who started a jogging regimen lost 6 more pounds than the person who started a rowing regimen.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="18" t="inlineStr">
         <is>
           <t>The person who started a Catan regimen lost 6 more pounds than the person who started a Carcassonne  regimen.</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="19">
+      <c r="A47" s="18" t="inlineStr">
         <is>
           <t>Of the friend who used the sugar-free diet and the friend who lost 15 lbs, one started kayaking and the other is Barbara.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="18" t="inlineStr">
         <is>
           <t>Of the friend who used the Red diet and the friend who lost 15 lbs, one started Cluedo and the other is Barbara.</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="19">
+      <c r="A48" s="18" t="inlineStr">
         <is>
           <t>Of Celia and the friend who started a rowing regimen, one lost 13 lbs and the other used the low-fat diet.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="18" t="inlineStr">
         <is>
           <t>Of Anthony and the friend who started a Carcassonne  regimen, one lost 13 lbs and the other used the low-fat diet.</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="19">
+      <c r="A49" s="18" t="inlineStr">
         <is>
           <t>Zachary didn't try rowing.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="18" t="inlineStr">
         <is>
           <t>Eliot didn't try Carcassonne .</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="19">
+      <c r="A50" s="18" t="inlineStr">
         <is>
           <t>The friend who started a yoga regimen lost 2 fewer pounds than Felicia.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="18" t="inlineStr">
         <is>
           <t>The friend who started a Monopoly  regimen lost 2 fewer pounds than Thomas.</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="19">
+      <c r="A51" s="18" t="inlineStr">
         <is>
           <t>Pamela lost 2 more pounds than the dieter who started a racquetball regimen.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="18" t="inlineStr">
         <is>
           <t>Lara lost 2 more pounds than the dieter who started a Pandemic regimen.</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="15" customHeight="1" s="19">
+      <c r="A52" s="18" t="inlineStr">
         <is>
           <t>The friend who used the vegetarian diet lost 4 more pounds than the dieter who used the vegan diet.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="18" t="inlineStr">
         <is>
           <t>The friend who used the vegetarian diet lost 4 more pounds than the dieter who used the Yellow diet.</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="19">
+      <c r="A53" s="18" t="inlineStr">
         <is>
           <t>Stuart, Zachary, the dieter who lost 5 lbs, the person who lost 11 lbs, the dieter who lost 3 lbs and the dieter who started a kayaking regimen are all different people.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="18" t="inlineStr">
         <is>
           <t>Jessica, Eliot, the dieter who lost 5 lbs, the person who lost 504 lbs, the dieter who lost 3 lbs and the dieter who started a Cluedo regimen are all different people.</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="19">
+      <c r="A54" s="18" t="inlineStr">
         <is>
           <t>The dieter who used the dairy-free diet lost 4 more pounds than the person who used the gluten-free diet.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="18" t="inlineStr">
         <is>
           <t>The dieter who used the dairy-free diet lost 4 more pounds than the person who used the gluten-free diet.</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="19">
+      <c r="A55" s="18" t="inlineStr">
         <is>
           <t>the dieter who was called George drove a Ford</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="18" t="inlineStr">
         <is>
           <t>the dieter who was called George drove a Ford</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="19">
+      <c r="A56" s="18" t="inlineStr">
         <is>
           <t>the black table was not by the mini owner</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="18" t="inlineStr">
         <is>
           <t>the black table was not by the mini owner</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>XYZXYZ</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="19">
+      <c r="A57" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B57" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" s="19">
+      <c r="A58" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" s="19">
+      <c r="A59" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B59" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="19">
+      <c r="A60" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B60" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="19">
+      <c r="A61" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B61" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" s="19">
+      <c r="A62" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B62" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" s="19">
+      <c r="A63" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B63" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="19">
+      <c r="A64" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" s="19">
+      <c r="A65" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B65" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" s="19">
+      <c r="A66" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B66" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" s="19">
+      <c r="A67" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B67" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" s="19">
+      <c r="A68" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B68" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" s="19">
+      <c r="A69" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B69" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" s="19">
+      <c r="A70" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" s="19">
+      <c r="A71" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B71" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" s="19">
+      <c r="A72" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B72" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" s="19">
+      <c r="A73" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B73" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" s="19">
+      <c r="A74" s="18" t="inlineStr">
+        <is>
+          <t>XYZXYZ</t>
+        </is>
+      </c>
+      <c r="B74" s="18" t="inlineStr">
         <is>
           <t>XYZXYZ</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>